--- a/Pokemon List.xlsx
+++ b/Pokemon List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="1049">
   <si>
     <t>Name</t>
   </si>
@@ -6417,7 +6417,7 @@
         <v>537</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="P38" s="6">
         <v>685</v>
@@ -7705,7 +7705,9 @@
       <c r="T55" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="U55" s="2"/>
+      <c r="U55" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V55" s="6">
         <v>862</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>217</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G60" s="6">
         <v>309</v>
@@ -8640,7 +8642,9 @@
       <c r="N68" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="O68" s="2"/>
+      <c r="O68" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P68" s="6">
         <v>715</v>
       </c>
@@ -8713,7 +8717,9 @@
       <c r="N69" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="O69" s="2"/>
+      <c r="O69" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P69" s="6">
         <v>716</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>467</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M75" s="6">
         <v>566</v>
@@ -9755,7 +9761,7 @@
         <v>341</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J84" s="6">
         <v>468</v>
@@ -11068,7 +11074,9 @@
       <c r="N104" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="O104" s="2"/>
+      <c r="O104" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P104" s="7"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
@@ -12108,7 +12116,7 @@
         <v>382</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="2"/>
@@ -12153,7 +12161,7 @@
         <v>383</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="2"/>

--- a/Pokemon List.xlsx
+++ b/Pokemon List.xlsx
@@ -5109,7 +5109,7 @@
         <v>178</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G21" s="6">
         <v>270</v>
@@ -10157,7 +10157,7 @@
         <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D90" s="6">
         <v>239</v>

--- a/Pokemon List.xlsx
+++ b/Pokemon List.xlsx
@@ -3169,7 +3169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3179,13 +3179,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3244,15 +3250,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3261,28 +3267,25 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3599,31 +3602,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="5.433571428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="7.147857142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -3643,7 +3646,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="9"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="7"/>
@@ -3660,7 +3663,7 @@
       <c r="AA1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1035</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3669,7 +3672,7 @@
       <c r="C2" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>1035</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -3678,72 +3681,72 @@
       <c r="F2" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>1035</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>1035</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>1043</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>1037</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3818,7 +3821,7 @@
       <c r="AA3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3893,7 +3896,7 @@
       <c r="AA4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3968,7 +3971,7 @@
       <c r="AA5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4043,7 +4046,7 @@
       <c r="AA6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4118,7 +4121,7 @@
       <c r="AA7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4193,7 +4196,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4268,7 +4271,7 @@
       <c r="AA9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4343,7 +4346,7 @@
       <c r="AA10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4418,7 +4421,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4493,7 +4496,7 @@
       <c r="AA12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4568,7 +4571,7 @@
       <c r="AA13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4643,7 +4646,7 @@
       <c r="AA14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4718,7 +4721,7 @@
       <c r="AA15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4793,7 +4796,7 @@
       <c r="AA16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4868,7 +4871,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4943,7 +4946,7 @@
       <c r="AA18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5018,7 +5021,7 @@
       <c r="AA19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5093,7 +5096,7 @@
       <c r="AA20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5170,7 +5173,7 @@
       <c r="AA21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5245,7 +5248,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5320,7 +5323,7 @@
       <c r="AA23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5395,7 +5398,7 @@
       <c r="AA24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5472,7 +5475,7 @@
       <c r="AA25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5549,7 +5552,7 @@
       <c r="AA26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5624,7 +5627,7 @@
       <c r="AA27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5699,7 +5702,7 @@
       <c r="AA28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5774,7 +5777,7 @@
       <c r="AA29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5849,7 +5852,7 @@
       <c r="AA30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5924,7 +5927,7 @@
       <c r="AA31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5999,7 +6002,7 @@
       <c r="AA32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -6074,7 +6077,7 @@
       <c r="AA33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6149,7 +6152,7 @@
       <c r="AA34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -6224,7 +6227,7 @@
       <c r="AA35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -6299,7 +6302,7 @@
       <c r="AA36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -6374,7 +6377,7 @@
       <c r="AA37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -6449,7 +6452,7 @@
       <c r="AA38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -6524,7 +6527,7 @@
       <c r="AA39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -6599,7 +6602,7 @@
       <c r="AA40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -6674,7 +6677,7 @@
       <c r="AA41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6749,7 +6752,7 @@
       <c r="AA42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -6824,7 +6827,7 @@
       <c r="AA43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6899,7 +6902,7 @@
       <c r="AA44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6974,7 +6977,7 @@
       <c r="AA45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7049,7 +7052,7 @@
       <c r="AA46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7124,7 +7127,7 @@
       <c r="AA47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7199,7 +7202,7 @@
       <c r="AA48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -7274,7 +7277,7 @@
       <c r="AA49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -7349,7 +7352,7 @@
       <c r="AA50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -7424,7 +7427,7 @@
       <c r="AA51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -7499,7 +7502,7 @@
       <c r="AA52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -7574,7 +7577,7 @@
       <c r="AA53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -7649,7 +7652,7 @@
       <c r="AA54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -7724,7 +7727,7 @@
       <c r="AA55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -7797,7 +7800,7 @@
       <c r="AA56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -7870,7 +7873,7 @@
       <c r="AA57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -7943,7 +7946,7 @@
       <c r="AA58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -8016,7 +8019,7 @@
       <c r="AA59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -8089,7 +8092,7 @@
       <c r="AA60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -8162,7 +8165,7 @@
       <c r="AA61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -8235,7 +8238,7 @@
       <c r="AA62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -8308,7 +8311,7 @@
       <c r="AA63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -8381,7 +8384,7 @@
       <c r="AA64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -8454,7 +8457,7 @@
       <c r="AA65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -8527,7 +8530,7 @@
       <c r="AA66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -8600,7 +8603,7 @@
       <c r="AA67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -8675,7 +8678,7 @@
       <c r="AA68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -8750,7 +8753,7 @@
       <c r="AA69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -8823,7 +8826,7 @@
       <c r="AA70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -8896,7 +8899,7 @@
       <c r="AA71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -8969,7 +8972,7 @@
       <c r="AA72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -9042,7 +9045,7 @@
       <c r="AA73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -9115,7 +9118,7 @@
       <c r="AA74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -9184,7 +9187,7 @@
       <c r="AA75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -9253,7 +9256,7 @@
       <c r="AA76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -9322,7 +9325,7 @@
       <c r="AA77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -9391,7 +9394,7 @@
       <c r="AA78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -9460,7 +9463,7 @@
       <c r="AA79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -9529,7 +9532,7 @@
       <c r="AA80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -9598,7 +9601,7 @@
       <c r="AA81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -9667,7 +9670,7 @@
       <c r="AA82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -9736,7 +9739,7 @@
       <c r="AA83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -9805,7 +9808,7 @@
       <c r="AA84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -9874,7 +9877,7 @@
       <c r="AA85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -9943,7 +9946,7 @@
       <c r="AA86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -10012,7 +10015,7 @@
       <c r="AA87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -10081,7 +10084,7 @@
       <c r="AA88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -10150,7 +10153,7 @@
       <c r="AA89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -10219,7 +10222,7 @@
       <c r="AA90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -10284,7 +10287,7 @@
       <c r="AA91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -10349,7 +10352,7 @@
       <c r="AA92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="13">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -10414,7 +10417,7 @@
       <c r="AA93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="13">
+      <c r="A94" s="12">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -10479,7 +10482,7 @@
       <c r="AA94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -10544,7 +10547,7 @@
       <c r="AA95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -10609,7 +10612,7 @@
       <c r="AA96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="13">
+      <c r="A97" s="12">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -10674,7 +10677,7 @@
       <c r="AA97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="13">
+      <c r="A98" s="12">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -10739,7 +10742,7 @@
       <c r="AA98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="13">
+      <c r="A99" s="12">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -10800,7 +10803,7 @@
       <c r="AA99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -10861,7 +10864,7 @@
       <c r="AA100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="13">
+      <c r="A101" s="12">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -10922,7 +10925,7 @@
       <c r="AA101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="13">
+      <c r="A102" s="12">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -10983,7 +10986,7 @@
       <c r="AA102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="13">
+      <c r="A103" s="12">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -11038,7 +11041,7 @@
       <c r="AA103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="13">
+      <c r="A104" s="12">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -11095,7 +11098,7 @@
       <c r="AA104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="13">
+      <c r="A105" s="12">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -11149,8 +11152,8 @@
       </c>
       <c r="AA105" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="13">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="12">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -11204,8 +11207,8 @@
       </c>
       <c r="AA106" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="13">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="12">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -11259,8 +11262,8 @@
       </c>
       <c r="AA107" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="13">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -11314,8 +11317,8 @@
       </c>
       <c r="AA108" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="13">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+      <c r="A109" s="12">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -11369,8 +11372,8 @@
       </c>
       <c r="AA109" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="13">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+      <c r="A110" s="12">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11418,8 +11421,8 @@
       </c>
       <c r="AA110" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="13">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+      <c r="A111" s="12">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -11467,8 +11470,8 @@
       </c>
       <c r="AA111" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="13">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+      <c r="A112" s="12">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -11516,8 +11519,8 @@
       </c>
       <c r="AA112" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="13">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+      <c r="A113" s="12">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -11565,8 +11568,8 @@
       </c>
       <c r="AA113" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="13">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+      <c r="A114" s="12">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -11614,8 +11617,8 @@
       </c>
       <c r="AA114" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="13">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+      <c r="A115" s="12">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -11663,8 +11666,8 @@
       </c>
       <c r="AA115" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="13">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+      <c r="A116" s="12">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -11712,8 +11715,8 @@
       </c>
       <c r="AA116" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="13">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+      <c r="A117" s="12">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -11761,8 +11764,8 @@
       </c>
       <c r="AA117" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="13">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+      <c r="A118" s="12">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -11810,8 +11813,8 @@
       </c>
       <c r="AA118" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="13">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+      <c r="A119" s="12">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -11859,8 +11862,8 @@
       </c>
       <c r="AA119" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="13">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+      <c r="A120" s="12">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -11908,8 +11911,8 @@
       </c>
       <c r="AA120" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="13">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+      <c r="A121" s="12">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -11957,8 +11960,8 @@
       </c>
       <c r="AA121" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="13">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+      <c r="A122" s="12">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -12006,8 +12009,8 @@
       </c>
       <c r="AA122" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="13">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+      <c r="A123" s="12">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -12051,8 +12054,8 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="13">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+      <c r="A124" s="12">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -12096,8 +12099,8 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="13">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+      <c r="A125" s="12">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -12141,8 +12144,8 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="13">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+      <c r="A126" s="12">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -12186,8 +12189,8 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="13">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+      <c r="A127" s="12">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -12231,8 +12234,8 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="13">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+      <c r="A128" s="12">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -12276,8 +12279,8 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="13">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+      <c r="A129" s="12">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -12321,8 +12324,8 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="13">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+      <c r="A130" s="12">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -12366,8 +12369,8 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="13">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+      <c r="A131" s="12">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -12412,7 +12415,7 @@
       <c r="AA131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="13">
+      <c r="A132" s="12">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -12457,7 +12460,7 @@
       <c r="AA132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="13">
+      <c r="A133" s="12">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -12502,7 +12505,7 @@
       <c r="AA133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="13">
+      <c r="A134" s="12">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -12547,7 +12550,7 @@
       <c r="AA134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="13">
+      <c r="A135" s="12">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -12592,7 +12595,7 @@
       <c r="AA135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="13">
+      <c r="A136" s="12">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -12637,7 +12640,7 @@
       <c r="AA136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="13">
+      <c r="A137" s="12">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -12682,7 +12685,7 @@
       <c r="AA137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="13">
+      <c r="A138" s="12">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -12721,7 +12724,7 @@
       <c r="AA138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="13">
+      <c r="A139" s="12">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -12760,7 +12763,7 @@
       <c r="AA139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="13">
+      <c r="A140" s="12">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -12799,7 +12802,7 @@
       <c r="AA140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="13">
+      <c r="A141" s="12">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -12838,7 +12841,7 @@
       <c r="AA141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="13">
+      <c r="A142" s="12">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -12877,7 +12880,7 @@
       <c r="AA142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="13">
+      <c r="A143" s="12">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -12916,7 +12919,7 @@
       <c r="AA143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="13">
+      <c r="A144" s="12">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -12955,7 +12958,7 @@
       <c r="AA144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="13">
+      <c r="A145" s="12">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -12994,7 +12997,7 @@
       <c r="AA145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="13">
+      <c r="A146" s="12">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -13033,7 +13036,7 @@
       <c r="AA146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="13">
+      <c r="A147" s="12">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -13072,7 +13075,7 @@
       <c r="AA147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="13">
+      <c r="A148" s="12">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -13111,7 +13114,7 @@
       <c r="AA148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="13">
+      <c r="A149" s="12">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -13150,7 +13153,7 @@
       <c r="AA149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="13">
+      <c r="A150" s="12">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -13189,7 +13192,7 @@
       <c r="AA150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="13">
+      <c r="A151" s="12">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -13228,7 +13231,7 @@
       <c r="AA151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="13">
+      <c r="A152" s="12">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -13267,7 +13270,7 @@
       <c r="AA152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="13">
+      <c r="A153" s="12">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -13306,7 +13309,7 @@
       <c r="AA153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="13"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="7"/>
@@ -13339,7 +13342,7 @@
       <c r="AA154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="13"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="7"/>
@@ -13372,7 +13375,7 @@
       <c r="AA155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="13"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="7"/>
@@ -13405,7 +13408,7 @@
       <c r="AA156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="13"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="7"/>

--- a/Pokemon List.xlsx
+++ b/Pokemon List.xlsx
@@ -3169,7 +3169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3179,7 +3179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3187,12 +3187,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -3250,7 +3244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3267,13 +3261,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -3290,9 +3281,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3602,68 +3590,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="5.433571428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="7.147857142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="6"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="7"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="7"/>
+      <c r="P1" s="6"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="7"/>
+      <c r="S1" s="6"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="7"/>
+      <c r="V1" s="6"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="7"/>
+      <c r="Y1" s="6"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1035</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3672,7 +3660,7 @@
       <c r="C2" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>1035</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -3681,72 +3669,72 @@
       <c r="F2" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>1035</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>1035</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>1043</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="9" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3820,8 +3808,8 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3895,8 +3883,8 @@
       </c>
       <c r="AA4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3970,8 +3958,8 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4045,8 +4033,8 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4120,8 +4108,8 @@
       </c>
       <c r="AA7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4195,8 +4183,8 @@
       </c>
       <c r="AA8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4270,8 +4258,8 @@
       </c>
       <c r="AA9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4345,8 +4333,8 @@
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4420,8 +4408,8 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4495,8 +4483,8 @@
       </c>
       <c r="AA12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4570,8 +4558,8 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4645,8 +4633,8 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4720,8 +4708,8 @@
       </c>
       <c r="AA15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4795,8 +4783,8 @@
       </c>
       <c r="AA16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4870,8 +4858,8 @@
       </c>
       <c r="AA17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4945,8 +4933,8 @@
       </c>
       <c r="AA18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5020,8 +5008,8 @@
       </c>
       <c r="AA19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5095,8 +5083,8 @@
       </c>
       <c r="AA20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5172,8 +5160,8 @@
       </c>
       <c r="AA21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5247,8 +5235,8 @@
       </c>
       <c r="AA22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5322,8 +5310,8 @@
       </c>
       <c r="AA23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5397,8 +5385,8 @@
       </c>
       <c r="AA24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5474,8 +5462,8 @@
       </c>
       <c r="AA25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5552,7 +5540,7 @@
       <c r="AA26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5627,7 +5615,7 @@
       <c r="AA27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5702,7 +5690,7 @@
       <c r="AA28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5777,7 +5765,7 @@
       <c r="AA29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5852,7 +5840,7 @@
       <c r="AA30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5927,7 +5915,7 @@
       <c r="AA31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -6002,7 +5990,7 @@
       <c r="AA32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -6077,7 +6065,7 @@
       <c r="AA33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6152,7 +6140,7 @@
       <c r="AA34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -6227,7 +6215,7 @@
       <c r="AA35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -6302,7 +6290,7 @@
       <c r="AA36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -6377,7 +6365,7 @@
       <c r="AA37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -6452,7 +6440,7 @@
       <c r="AA38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -6527,7 +6515,7 @@
       <c r="AA39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -6602,7 +6590,7 @@
       <c r="AA40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -6677,7 +6665,7 @@
       <c r="AA41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6752,7 +6740,7 @@
       <c r="AA42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -6827,7 +6815,7 @@
       <c r="AA43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6902,7 +6890,7 @@
       <c r="AA44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6977,7 +6965,7 @@
       <c r="AA45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7052,7 +7040,7 @@
       <c r="AA46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7127,7 +7115,7 @@
       <c r="AA47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7202,7 +7190,7 @@
       <c r="AA48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -7277,7 +7265,7 @@
       <c r="AA49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -7352,7 +7340,7 @@
       <c r="AA50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -7427,7 +7415,7 @@
       <c r="AA51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -7502,7 +7490,7 @@
       <c r="AA52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="12">
+      <c r="A53" s="11">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -7577,7 +7565,7 @@
       <c r="AA53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="12">
+      <c r="A54" s="11">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -7652,7 +7640,7 @@
       <c r="AA54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="12">
+      <c r="A55" s="11">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -7727,7 +7715,7 @@
       <c r="AA55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -7800,7 +7788,7 @@
       <c r="AA56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="12">
+      <c r="A57" s="11">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -7873,7 +7861,7 @@
       <c r="AA57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="12">
+      <c r="A58" s="11">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -7946,7 +7934,7 @@
       <c r="AA58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -8019,7 +8007,7 @@
       <c r="AA59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="12">
+      <c r="A60" s="11">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -8092,7 +8080,7 @@
       <c r="AA60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="12">
+      <c r="A61" s="11">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -8165,7 +8153,7 @@
       <c r="AA61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="12">
+      <c r="A62" s="11">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -8238,7 +8226,7 @@
       <c r="AA62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="12">
+      <c r="A63" s="11">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -8311,7 +8299,7 @@
       <c r="AA63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="12">
+      <c r="A64" s="11">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -8384,7 +8372,7 @@
       <c r="AA64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="12">
+      <c r="A65" s="11">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -8457,7 +8445,7 @@
       <c r="AA65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="12">
+      <c r="A66" s="11">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -8530,7 +8518,7 @@
       <c r="AA66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="12">
+      <c r="A67" s="11">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -8603,7 +8591,7 @@
       <c r="AA67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="12">
+      <c r="A68" s="11">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -8678,7 +8666,7 @@
       <c r="AA68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="12">
+      <c r="A69" s="11">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -8753,7 +8741,7 @@
       <c r="AA69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="12">
+      <c r="A70" s="11">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -8826,7 +8814,7 @@
       <c r="AA70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="12">
+      <c r="A71" s="11">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -8899,7 +8887,7 @@
       <c r="AA71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="12">
+      <c r="A72" s="11">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -8972,7 +8960,7 @@
       <c r="AA72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="12">
+      <c r="A73" s="11">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -9045,7 +9033,7 @@
       <c r="AA73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="12">
+      <c r="A74" s="11">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -9118,7 +9106,7 @@
       <c r="AA74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="12">
+      <c r="A75" s="11">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -9161,7 +9149,7 @@
         <v>574</v>
       </c>
       <c r="O75" s="2"/>
-      <c r="P75" s="7"/>
+      <c r="P75" s="6"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="6">
@@ -9187,7 +9175,7 @@
       <c r="AA75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="12">
+      <c r="A76" s="11">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -9230,7 +9218,7 @@
         <v>575</v>
       </c>
       <c r="O76" s="2"/>
-      <c r="P76" s="7"/>
+      <c r="P76" s="6"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="6">
@@ -9256,7 +9244,7 @@
       <c r="AA76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -9299,7 +9287,7 @@
         <v>576</v>
       </c>
       <c r="O77" s="2"/>
-      <c r="P77" s="7"/>
+      <c r="P77" s="6"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="6">
@@ -9325,7 +9313,7 @@
       <c r="AA77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="12">
+      <c r="A78" s="11">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -9368,7 +9356,7 @@
         <v>577</v>
       </c>
       <c r="O78" s="2"/>
-      <c r="P78" s="7"/>
+      <c r="P78" s="6"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="6">
@@ -9394,7 +9382,7 @@
       <c r="AA78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -9437,7 +9425,7 @@
         <v>578</v>
       </c>
       <c r="O79" s="2"/>
-      <c r="P79" s="7"/>
+      <c r="P79" s="6"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="6">
@@ -9463,7 +9451,7 @@
       <c r="AA79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="12">
+      <c r="A80" s="11">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -9506,7 +9494,7 @@
         <v>579</v>
       </c>
       <c r="O80" s="2"/>
-      <c r="P80" s="7"/>
+      <c r="P80" s="6"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="6">
@@ -9532,7 +9520,7 @@
       <c r="AA80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="12">
+      <c r="A81" s="11">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -9575,7 +9563,7 @@
         <v>580</v>
       </c>
       <c r="O81" s="2"/>
-      <c r="P81" s="7"/>
+      <c r="P81" s="6"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="6">
@@ -9601,7 +9589,7 @@
       <c r="AA81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="12">
+      <c r="A82" s="11">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -9644,7 +9632,7 @@
         <v>581</v>
       </c>
       <c r="O82" s="2"/>
-      <c r="P82" s="7"/>
+      <c r="P82" s="6"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="6">
@@ -9670,7 +9658,7 @@
       <c r="AA82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -9713,7 +9701,7 @@
         <v>582</v>
       </c>
       <c r="O83" s="2"/>
-      <c r="P83" s="7"/>
+      <c r="P83" s="6"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="6">
@@ -9739,7 +9727,7 @@
       <c r="AA83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -9782,7 +9770,7 @@
         <v>583</v>
       </c>
       <c r="O84" s="2"/>
-      <c r="P84" s="7"/>
+      <c r="P84" s="6"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="6">
@@ -9808,7 +9796,7 @@
       <c r="AA84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="12">
+      <c r="A85" s="11">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -9851,7 +9839,7 @@
         <v>584</v>
       </c>
       <c r="O85" s="2"/>
-      <c r="P85" s="7"/>
+      <c r="P85" s="6"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="6">
@@ -9877,7 +9865,7 @@
       <c r="AA85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="12">
+      <c r="A86" s="11">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -9920,7 +9908,7 @@
         <v>585</v>
       </c>
       <c r="O86" s="2"/>
-      <c r="P86" s="7"/>
+      <c r="P86" s="6"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="6">
@@ -9946,7 +9934,7 @@
       <c r="AA86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="12">
+      <c r="A87" s="11">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -9989,7 +9977,7 @@
         <v>586</v>
       </c>
       <c r="O87" s="2"/>
-      <c r="P87" s="7"/>
+      <c r="P87" s="6"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="6">
@@ -10015,7 +10003,7 @@
       <c r="AA87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="12">
+      <c r="A88" s="11">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -10058,7 +10046,7 @@
         <v>587</v>
       </c>
       <c r="O88" s="2"/>
-      <c r="P88" s="7"/>
+      <c r="P88" s="6"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="6">
@@ -10084,7 +10072,7 @@
       <c r="AA88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="12">
+      <c r="A89" s="11">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -10127,7 +10115,7 @@
         <v>588</v>
       </c>
       <c r="O89" s="2"/>
-      <c r="P89" s="7"/>
+      <c r="P89" s="6"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="6">
@@ -10153,14 +10141,14 @@
       <c r="AA89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="12">
+      <c r="A90" s="11">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D90" s="6">
         <v>239</v>
@@ -10196,7 +10184,7 @@
         <v>589</v>
       </c>
       <c r="O90" s="2"/>
-      <c r="P90" s="7"/>
+      <c r="P90" s="6"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="6">
@@ -10222,7 +10210,7 @@
       <c r="AA90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="12">
+      <c r="A91" s="11">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -10265,10 +10253,10 @@
         <v>590</v>
       </c>
       <c r="O91" s="2"/>
-      <c r="P91" s="7"/>
+      <c r="P91" s="6"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
-      <c r="S91" s="7"/>
+      <c r="S91" s="6"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="6">
@@ -10287,7 +10275,7 @@
       <c r="AA91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="12">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -10330,10 +10318,10 @@
         <v>591</v>
       </c>
       <c r="O92" s="2"/>
-      <c r="P92" s="7"/>
+      <c r="P92" s="6"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
-      <c r="S92" s="7"/>
+      <c r="S92" s="6"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="6">
@@ -10352,14 +10340,14 @@
       <c r="AA92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="12">
+      <c r="A93" s="11">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D93" s="6">
         <v>242</v>
@@ -10395,10 +10383,10 @@
         <v>592</v>
       </c>
       <c r="O93" s="2"/>
-      <c r="P93" s="7"/>
+      <c r="P93" s="6"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
-      <c r="S93" s="7"/>
+      <c r="S93" s="6"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="6">
@@ -10417,14 +10405,14 @@
       <c r="AA93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="12">
+      <c r="A94" s="11">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D94" s="6">
         <v>243</v>
@@ -10460,10 +10448,10 @@
         <v>593</v>
       </c>
       <c r="O94" s="2"/>
-      <c r="P94" s="7"/>
+      <c r="P94" s="6"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
-      <c r="S94" s="7"/>
+      <c r="S94" s="6"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="6">
@@ -10482,14 +10470,14 @@
       <c r="AA94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="12">
+      <c r="A95" s="11">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D95" s="6">
         <v>244</v>
@@ -10525,10 +10513,10 @@
         <v>594</v>
       </c>
       <c r="O95" s="2"/>
-      <c r="P95" s="7"/>
+      <c r="P95" s="6"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
-      <c r="S95" s="7"/>
+      <c r="S95" s="6"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="6">
@@ -10547,7 +10535,7 @@
       <c r="AA95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="12">
+      <c r="A96" s="11">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -10590,10 +10578,10 @@
         <v>595</v>
       </c>
       <c r="O96" s="2"/>
-      <c r="P96" s="7"/>
+      <c r="P96" s="6"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
-      <c r="S96" s="7"/>
+      <c r="S96" s="6"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="6">
@@ -10612,7 +10600,7 @@
       <c r="AA96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="12">
+      <c r="A97" s="11">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -10655,10 +10643,10 @@
         <v>596</v>
       </c>
       <c r="O97" s="2"/>
-      <c r="P97" s="7"/>
+      <c r="P97" s="6"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
-      <c r="S97" s="7"/>
+      <c r="S97" s="6"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="6">
@@ -10677,7 +10665,7 @@
       <c r="AA97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="12">
+      <c r="A98" s="11">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -10720,10 +10708,10 @@
         <v>597</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" s="7"/>
+      <c r="P98" s="6"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
-      <c r="S98" s="7"/>
+      <c r="S98" s="6"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="6">
@@ -10742,7 +10730,7 @@
       <c r="AA98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="12">
+      <c r="A99" s="11">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -10785,13 +10773,13 @@
         <v>598</v>
       </c>
       <c r="O99" s="2"/>
-      <c r="P99" s="7"/>
+      <c r="P99" s="6"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
-      <c r="S99" s="7"/>
+      <c r="S99" s="6"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
-      <c r="V99" s="7"/>
+      <c r="V99" s="6"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="6">
@@ -10803,7 +10791,7 @@
       <c r="AA99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="12">
+      <c r="A100" s="11">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -10846,13 +10834,13 @@
         <v>599</v>
       </c>
       <c r="O100" s="2"/>
-      <c r="P100" s="7"/>
+      <c r="P100" s="6"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
-      <c r="S100" s="7"/>
+      <c r="S100" s="6"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
-      <c r="V100" s="7"/>
+      <c r="V100" s="6"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="6">
@@ -10864,7 +10852,7 @@
       <c r="AA100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="12">
+      <c r="A101" s="11">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -10907,13 +10895,13 @@
         <v>600</v>
       </c>
       <c r="O101" s="2"/>
-      <c r="P101" s="7"/>
+      <c r="P101" s="6"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
-      <c r="S101" s="7"/>
+      <c r="S101" s="6"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
-      <c r="V101" s="7"/>
+      <c r="V101" s="6"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="6">
@@ -10925,7 +10913,7 @@
       <c r="AA101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="12">
+      <c r="A102" s="11">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -10968,13 +10956,13 @@
         <v>601</v>
       </c>
       <c r="O102" s="2"/>
-      <c r="P102" s="7"/>
+      <c r="P102" s="6"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
-      <c r="S102" s="7"/>
+      <c r="S102" s="6"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
-      <c r="V102" s="7"/>
+      <c r="V102" s="6"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="6">
@@ -10986,7 +10974,7 @@
       <c r="AA102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="12">
+      <c r="A103" s="11">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -10995,7 +10983,7 @@
       <c r="C103" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="6">
@@ -11023,13 +11011,13 @@
         <v>602</v>
       </c>
       <c r="O103" s="2"/>
-      <c r="P103" s="7"/>
+      <c r="P103" s="6"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
-      <c r="S103" s="7"/>
+      <c r="S103" s="6"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
-      <c r="V103" s="7"/>
+      <c r="V103" s="6"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="6">
@@ -11041,7 +11029,7 @@
       <c r="AA103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="12">
+      <c r="A104" s="11">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -11050,7 +11038,7 @@
       <c r="C104" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="6">
@@ -11080,13 +11068,13 @@
       <c r="O104" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="P104" s="7"/>
+      <c r="P104" s="6"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
-      <c r="S104" s="7"/>
+      <c r="S104" s="6"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
-      <c r="V104" s="7"/>
+      <c r="V104" s="6"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="6">
@@ -11098,16 +11086,16 @@
       <c r="AA104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="12">
+      <c r="A105" s="11">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D105" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D105" s="6"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="6">
@@ -11135,13 +11123,13 @@
         <v>604</v>
       </c>
       <c r="O105" s="2"/>
-      <c r="P105" s="7"/>
+      <c r="P105" s="6"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
-      <c r="S105" s="7"/>
+      <c r="S105" s="6"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
-      <c r="V105" s="7"/>
+      <c r="V105" s="6"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="6">
@@ -11153,7 +11141,7 @@
       <c r="AA105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
-      <c r="A106" s="12">
+      <c r="A106" s="11">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -11162,7 +11150,7 @@
       <c r="C106" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="6">
@@ -11190,13 +11178,13 @@
         <v>605</v>
       </c>
       <c r="O106" s="2"/>
-      <c r="P106" s="7"/>
+      <c r="P106" s="6"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
-      <c r="S106" s="7"/>
+      <c r="S106" s="6"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
-      <c r="V106" s="7"/>
+      <c r="V106" s="6"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="6">
@@ -11208,7 +11196,7 @@
       <c r="AA106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
-      <c r="A107" s="12">
+      <c r="A107" s="11">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -11217,7 +11205,7 @@
       <c r="C107" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="6">
@@ -11245,13 +11233,13 @@
         <v>606</v>
       </c>
       <c r="O107" s="2"/>
-      <c r="P107" s="7"/>
+      <c r="P107" s="6"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
-      <c r="S107" s="7"/>
+      <c r="S107" s="6"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
-      <c r="V107" s="7"/>
+      <c r="V107" s="6"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="6">
@@ -11263,7 +11251,7 @@
       <c r="AA107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
-      <c r="A108" s="12">
+      <c r="A108" s="11">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -11272,7 +11260,7 @@
       <c r="C108" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="6">
@@ -11300,13 +11288,13 @@
         <v>607</v>
       </c>
       <c r="O108" s="2"/>
-      <c r="P108" s="7"/>
+      <c r="P108" s="6"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
-      <c r="S108" s="7"/>
+      <c r="S108" s="6"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
-      <c r="V108" s="7"/>
+      <c r="V108" s="6"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="6">
@@ -11318,7 +11306,7 @@
       <c r="AA108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
-      <c r="A109" s="12">
+      <c r="A109" s="11">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -11327,7 +11315,7 @@
       <c r="C109" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D109" s="7"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="6">
@@ -11355,13 +11343,13 @@
         <v>608</v>
       </c>
       <c r="O109" s="2"/>
-      <c r="P109" s="7"/>
+      <c r="P109" s="6"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
-      <c r="S109" s="7"/>
+      <c r="S109" s="6"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
-      <c r="V109" s="7"/>
+      <c r="V109" s="6"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="6">
@@ -11373,7 +11361,7 @@
       <c r="AA109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
-      <c r="A110" s="12">
+      <c r="A110" s="11">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11382,7 +11370,7 @@
       <c r="C110" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="6">
@@ -11394,7 +11382,7 @@
       <c r="I110" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J110" s="7"/>
+      <c r="J110" s="6"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="6">
@@ -11404,13 +11392,13 @@
         <v>609</v>
       </c>
       <c r="O110" s="2"/>
-      <c r="P110" s="7"/>
+      <c r="P110" s="6"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="6"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
-      <c r="V110" s="7"/>
+      <c r="V110" s="6"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="6">
@@ -11422,16 +11410,16 @@
       <c r="AA110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
-      <c r="A111" s="12">
+      <c r="A111" s="11">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D111" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D111" s="6"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="6">
@@ -11443,7 +11431,7 @@
       <c r="I111" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J111" s="7"/>
+      <c r="J111" s="6"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="6">
@@ -11453,13 +11441,13 @@
         <v>610</v>
       </c>
       <c r="O111" s="2"/>
-      <c r="P111" s="7"/>
+      <c r="P111" s="6"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="6"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
-      <c r="V111" s="7"/>
+      <c r="V111" s="6"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="6">
@@ -11471,7 +11459,7 @@
       <c r="AA111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -11480,7 +11468,7 @@
       <c r="C112" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="6">
@@ -11492,7 +11480,7 @@
       <c r="I112" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J112" s="7"/>
+      <c r="J112" s="6"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="6">
@@ -11502,13 +11490,13 @@
         <v>611</v>
       </c>
       <c r="O112" s="2"/>
-      <c r="P112" s="7"/>
+      <c r="P112" s="6"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="6"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
-      <c r="V112" s="7"/>
+      <c r="V112" s="6"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="6">
@@ -11520,7 +11508,7 @@
       <c r="AA112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
-      <c r="A113" s="12">
+      <c r="A113" s="11">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -11529,7 +11517,7 @@
       <c r="C113" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="6">
@@ -11541,7 +11529,7 @@
       <c r="I113" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J113" s="7"/>
+      <c r="J113" s="6"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="6">
@@ -11551,13 +11539,13 @@
         <v>612</v>
       </c>
       <c r="O113" s="2"/>
-      <c r="P113" s="7"/>
+      <c r="P113" s="6"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="6"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
-      <c r="V113" s="7"/>
+      <c r="V113" s="6"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="6">
@@ -11569,7 +11557,7 @@
       <c r="AA113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
-      <c r="A114" s="12">
+      <c r="A114" s="11">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -11578,7 +11566,7 @@
       <c r="C114" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="6">
@@ -11590,7 +11578,7 @@
       <c r="I114" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J114" s="7"/>
+      <c r="J114" s="6"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="6">
@@ -11600,13 +11588,13 @@
         <v>613</v>
       </c>
       <c r="O114" s="2"/>
-      <c r="P114" s="7"/>
+      <c r="P114" s="6"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="6"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
-      <c r="V114" s="7"/>
+      <c r="V114" s="6"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="6">
@@ -11618,7 +11606,7 @@
       <c r="AA114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
-      <c r="A115" s="12">
+      <c r="A115" s="11">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -11627,7 +11615,7 @@
       <c r="C115" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="6">
@@ -11639,7 +11627,7 @@
       <c r="I115" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J115" s="7"/>
+      <c r="J115" s="6"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="6">
@@ -11649,13 +11637,13 @@
         <v>614</v>
       </c>
       <c r="O115" s="2"/>
-      <c r="P115" s="7"/>
+      <c r="P115" s="6"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="6"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
-      <c r="V115" s="7"/>
+      <c r="V115" s="6"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="6">
@@ -11667,7 +11655,7 @@
       <c r="AA115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
-      <c r="A116" s="12">
+      <c r="A116" s="11">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -11676,7 +11664,7 @@
       <c r="C116" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="6">
@@ -11688,7 +11676,7 @@
       <c r="I116" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J116" s="7"/>
+      <c r="J116" s="6"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="6">
@@ -11698,13 +11686,13 @@
         <v>615</v>
       </c>
       <c r="O116" s="2"/>
-      <c r="P116" s="7"/>
+      <c r="P116" s="6"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="6"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
-      <c r="V116" s="7"/>
+      <c r="V116" s="6"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="6">
@@ -11716,7 +11704,7 @@
       <c r="AA116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
-      <c r="A117" s="12">
+      <c r="A117" s="11">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -11725,7 +11713,7 @@
       <c r="C117" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="6">
@@ -11737,7 +11725,7 @@
       <c r="I117" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J117" s="7"/>
+      <c r="J117" s="6"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="6">
@@ -11747,13 +11735,13 @@
         <v>616</v>
       </c>
       <c r="O117" s="2"/>
-      <c r="P117" s="7"/>
+      <c r="P117" s="6"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="6"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
-      <c r="V117" s="7"/>
+      <c r="V117" s="6"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="6">
@@ -11765,7 +11753,7 @@
       <c r="AA117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
-      <c r="A118" s="12">
+      <c r="A118" s="11">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -11774,7 +11762,7 @@
       <c r="C118" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="6">
@@ -11786,7 +11774,7 @@
       <c r="I118" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J118" s="7"/>
+      <c r="J118" s="6"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="6">
@@ -11796,13 +11784,13 @@
         <v>617</v>
       </c>
       <c r="O118" s="2"/>
-      <c r="P118" s="7"/>
+      <c r="P118" s="6"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="6"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
-      <c r="V118" s="7"/>
+      <c r="V118" s="6"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="6">
@@ -11814,7 +11802,7 @@
       <c r="AA118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
-      <c r="A119" s="12">
+      <c r="A119" s="11">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -11823,7 +11811,7 @@
       <c r="C119" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="6">
@@ -11835,7 +11823,7 @@
       <c r="I119" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J119" s="7"/>
+      <c r="J119" s="6"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="6">
@@ -11845,13 +11833,13 @@
         <v>618</v>
       </c>
       <c r="O119" s="2"/>
-      <c r="P119" s="7"/>
+      <c r="P119" s="6"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
-      <c r="S119" s="7"/>
+      <c r="S119" s="6"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
-      <c r="V119" s="7"/>
+      <c r="V119" s="6"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="6">
@@ -11863,16 +11851,16 @@
       <c r="AA119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
-      <c r="A120" s="12">
+      <c r="A120" s="11">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D120" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D120" s="6"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="6">
@@ -11884,7 +11872,7 @@
       <c r="I120" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="J120" s="7"/>
+      <c r="J120" s="6"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="6">
@@ -11894,13 +11882,13 @@
         <v>619</v>
       </c>
       <c r="O120" s="2"/>
-      <c r="P120" s="7"/>
+      <c r="P120" s="6"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
-      <c r="S120" s="7"/>
+      <c r="S120" s="6"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
-      <c r="V120" s="7"/>
+      <c r="V120" s="6"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="6">
@@ -11912,16 +11900,16 @@
       <c r="AA120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
-      <c r="A121" s="12">
+      <c r="A121" s="11">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D121" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="6">
@@ -11933,7 +11921,7 @@
       <c r="I121" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J121" s="7"/>
+      <c r="J121" s="6"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="6">
@@ -11943,13 +11931,13 @@
         <v>620</v>
       </c>
       <c r="O121" s="2"/>
-      <c r="P121" s="7"/>
+      <c r="P121" s="6"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
-      <c r="S121" s="7"/>
+      <c r="S121" s="6"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
-      <c r="V121" s="7"/>
+      <c r="V121" s="6"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="6">
@@ -11961,16 +11949,16 @@
       <c r="AA121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
-      <c r="A122" s="12">
+      <c r="A122" s="11">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D122" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D122" s="6"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="6">
@@ -11982,7 +11970,7 @@
       <c r="I122" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J122" s="7"/>
+      <c r="J122" s="6"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="6">
@@ -11992,13 +11980,13 @@
         <v>621</v>
       </c>
       <c r="O122" s="2"/>
-      <c r="P122" s="7"/>
+      <c r="P122" s="6"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
-      <c r="S122" s="7"/>
+      <c r="S122" s="6"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
-      <c r="V122" s="7"/>
+      <c r="V122" s="6"/>
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="6">
@@ -12010,16 +11998,16 @@
       <c r="AA122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
-      <c r="A123" s="12">
+      <c r="A123" s="11">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D123" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D123" s="6"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="6">
@@ -12031,7 +12019,7 @@
       <c r="I123" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J123" s="7"/>
+      <c r="J123" s="6"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="6">
@@ -12041,21 +12029,21 @@
         <v>622</v>
       </c>
       <c r="O123" s="2"/>
-      <c r="P123" s="7"/>
+      <c r="P123" s="6"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
-      <c r="S123" s="7"/>
+      <c r="S123" s="6"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
-      <c r="V123" s="7"/>
+      <c r="V123" s="6"/>
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
-      <c r="Y123" s="7"/>
+      <c r="Y123" s="6"/>
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
-      <c r="A124" s="12">
+      <c r="A124" s="11">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -12064,7 +12052,7 @@
       <c r="C124" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="6">
@@ -12076,7 +12064,7 @@
       <c r="I124" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J124" s="7"/>
+      <c r="J124" s="6"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="6">
@@ -12086,21 +12074,21 @@
         <v>623</v>
       </c>
       <c r="O124" s="2"/>
-      <c r="P124" s="7"/>
+      <c r="P124" s="6"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
-      <c r="S124" s="7"/>
+      <c r="S124" s="6"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
-      <c r="V124" s="7"/>
+      <c r="V124" s="6"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
-      <c r="Y124" s="7"/>
+      <c r="Y124" s="6"/>
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
-      <c r="A125" s="12">
+      <c r="A125" s="11">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -12109,7 +12097,7 @@
       <c r="C125" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D125" s="7"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="6">
@@ -12121,7 +12109,7 @@
       <c r="I125" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J125" s="7"/>
+      <c r="J125" s="6"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="6">
@@ -12131,30 +12119,30 @@
         <v>624</v>
       </c>
       <c r="O125" s="2"/>
-      <c r="P125" s="7"/>
+      <c r="P125" s="6"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
-      <c r="S125" s="7"/>
+      <c r="S125" s="6"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
-      <c r="V125" s="7"/>
+      <c r="V125" s="6"/>
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
-      <c r="Y125" s="7"/>
+      <c r="Y125" s="6"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
-      <c r="A126" s="12">
+      <c r="A126" s="11">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D126" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D126" s="6"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="6">
@@ -12166,7 +12154,7 @@
       <c r="I126" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J126" s="7"/>
+      <c r="J126" s="6"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="6">
@@ -12176,30 +12164,30 @@
         <v>625</v>
       </c>
       <c r="O126" s="2"/>
-      <c r="P126" s="7"/>
+      <c r="P126" s="6"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
-      <c r="S126" s="7"/>
+      <c r="S126" s="6"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
-      <c r="V126" s="7"/>
+      <c r="V126" s="6"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
-      <c r="Y126" s="7"/>
+      <c r="Y126" s="6"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
-      <c r="A127" s="12">
+      <c r="A127" s="11">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D127" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D127" s="6"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="6">
@@ -12211,7 +12199,7 @@
       <c r="I127" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J127" s="7"/>
+      <c r="J127" s="6"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="6">
@@ -12221,30 +12209,30 @@
         <v>626</v>
       </c>
       <c r="O127" s="2"/>
-      <c r="P127" s="7"/>
+      <c r="P127" s="6"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
-      <c r="S127" s="7"/>
+      <c r="S127" s="6"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
-      <c r="V127" s="7"/>
+      <c r="V127" s="6"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
-      <c r="Y127" s="7"/>
+      <c r="Y127" s="6"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
-      <c r="A128" s="12">
+      <c r="A128" s="11">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D128" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D128" s="6"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="6">
@@ -12256,7 +12244,7 @@
       <c r="I128" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="J128" s="7"/>
+      <c r="J128" s="6"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="6">
@@ -12266,21 +12254,21 @@
         <v>627</v>
       </c>
       <c r="O128" s="2"/>
-      <c r="P128" s="7"/>
+      <c r="P128" s="6"/>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
-      <c r="S128" s="7"/>
+      <c r="S128" s="6"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
-      <c r="V128" s="7"/>
+      <c r="V128" s="6"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
-      <c r="Y128" s="7"/>
+      <c r="Y128" s="6"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
-      <c r="A129" s="12">
+      <c r="A129" s="11">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -12289,7 +12277,7 @@
       <c r="C129" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="6">
@@ -12301,7 +12289,7 @@
       <c r="I129" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="J129" s="7"/>
+      <c r="J129" s="6"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="6">
@@ -12311,30 +12299,30 @@
         <v>628</v>
       </c>
       <c r="O129" s="2"/>
-      <c r="P129" s="7"/>
+      <c r="P129" s="6"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
-      <c r="S129" s="7"/>
+      <c r="S129" s="6"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
-      <c r="V129" s="7"/>
+      <c r="V129" s="6"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
-      <c r="Y129" s="7"/>
+      <c r="Y129" s="6"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
-      <c r="A130" s="12">
+      <c r="A130" s="11">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D130" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="6">
@@ -12346,7 +12334,7 @@
       <c r="I130" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="J130" s="7"/>
+      <c r="J130" s="6"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="6">
@@ -12356,21 +12344,21 @@
         <v>629</v>
       </c>
       <c r="O130" s="2"/>
-      <c r="P130" s="7"/>
+      <c r="P130" s="6"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
-      <c r="S130" s="7"/>
+      <c r="S130" s="6"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
-      <c r="V130" s="7"/>
+      <c r="V130" s="6"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
-      <c r="Y130" s="7"/>
+      <c r="Y130" s="6"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="12">
+      <c r="A131" s="11">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -12379,7 +12367,7 @@
       <c r="C131" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D131" s="7"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="6">
@@ -12391,7 +12379,7 @@
       <c r="I131" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J131" s="7"/>
+      <c r="J131" s="6"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="6">
@@ -12401,21 +12389,21 @@
         <v>630</v>
       </c>
       <c r="O131" s="2"/>
-      <c r="P131" s="7"/>
+      <c r="P131" s="6"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
-      <c r="S131" s="7"/>
+      <c r="S131" s="6"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
-      <c r="V131" s="7"/>
+      <c r="V131" s="6"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
-      <c r="Y131" s="7"/>
+      <c r="Y131" s="6"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="12">
+      <c r="A132" s="11">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -12424,7 +12412,7 @@
       <c r="C132" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="6">
@@ -12436,7 +12424,7 @@
       <c r="I132" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J132" s="7"/>
+      <c r="J132" s="6"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="6">
@@ -12446,21 +12434,21 @@
         <v>631</v>
       </c>
       <c r="O132" s="2"/>
-      <c r="P132" s="7"/>
+      <c r="P132" s="6"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
-      <c r="S132" s="7"/>
+      <c r="S132" s="6"/>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
-      <c r="V132" s="7"/>
+      <c r="V132" s="6"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
-      <c r="Y132" s="7"/>
+      <c r="Y132" s="6"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="12">
+      <c r="A133" s="11">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -12469,7 +12457,7 @@
       <c r="C133" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D133" s="7"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="6">
@@ -12481,7 +12469,7 @@
       <c r="I133" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J133" s="7"/>
+      <c r="J133" s="6"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="6">
@@ -12491,30 +12479,30 @@
         <v>632</v>
       </c>
       <c r="O133" s="2"/>
-      <c r="P133" s="7"/>
+      <c r="P133" s="6"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
-      <c r="S133" s="7"/>
+      <c r="S133" s="6"/>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
-      <c r="V133" s="7"/>
+      <c r="V133" s="6"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
-      <c r="Y133" s="7"/>
+      <c r="Y133" s="6"/>
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="12">
+      <c r="A134" s="11">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D134" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D134" s="6"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="6">
@@ -12526,7 +12514,7 @@
       <c r="I134" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J134" s="7"/>
+      <c r="J134" s="6"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="6">
@@ -12536,21 +12524,21 @@
         <v>633</v>
       </c>
       <c r="O134" s="2"/>
-      <c r="P134" s="7"/>
+      <c r="P134" s="6"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
-      <c r="S134" s="7"/>
+      <c r="S134" s="6"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
-      <c r="V134" s="7"/>
+      <c r="V134" s="6"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
-      <c r="Y134" s="7"/>
+      <c r="Y134" s="6"/>
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="12">
+      <c r="A135" s="11">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -12559,7 +12547,7 @@
       <c r="C135" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="6">
@@ -12571,7 +12559,7 @@
       <c r="I135" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J135" s="7"/>
+      <c r="J135" s="6"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="6">
@@ -12581,21 +12569,21 @@
         <v>634</v>
       </c>
       <c r="O135" s="2"/>
-      <c r="P135" s="7"/>
+      <c r="P135" s="6"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
-      <c r="S135" s="7"/>
+      <c r="S135" s="6"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
-      <c r="V135" s="7"/>
+      <c r="V135" s="6"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
-      <c r="Y135" s="7"/>
+      <c r="Y135" s="6"/>
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="12">
+      <c r="A136" s="11">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -12604,7 +12592,7 @@
       <c r="C136" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D136" s="7"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="6">
@@ -12616,7 +12604,7 @@
       <c r="I136" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J136" s="7"/>
+      <c r="J136" s="6"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="6">
@@ -12626,21 +12614,21 @@
         <v>635</v>
       </c>
       <c r="O136" s="2"/>
-      <c r="P136" s="7"/>
+      <c r="P136" s="6"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
-      <c r="S136" s="7"/>
+      <c r="S136" s="6"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
-      <c r="V136" s="7"/>
+      <c r="V136" s="6"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
-      <c r="Y136" s="7"/>
+      <c r="Y136" s="6"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="12">
+      <c r="A137" s="11">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -12649,7 +12637,7 @@
       <c r="C137" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D137" s="7"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="6">
@@ -12661,7 +12649,7 @@
       <c r="I137" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J137" s="7"/>
+      <c r="J137" s="6"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="6">
@@ -12671,21 +12659,21 @@
         <v>636</v>
       </c>
       <c r="O137" s="2"/>
-      <c r="P137" s="7"/>
+      <c r="P137" s="6"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="7"/>
+      <c r="S137" s="6"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
-      <c r="V137" s="7"/>
+      <c r="V137" s="6"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
-      <c r="Y137" s="7"/>
+      <c r="Y137" s="6"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="12">
+      <c r="A138" s="11">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -12694,13 +12682,13 @@
       <c r="C138" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D138" s="7"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-      <c r="G138" s="7"/>
+      <c r="G138" s="6"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
-      <c r="J138" s="7"/>
+      <c r="J138" s="6"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="6">
@@ -12710,21 +12698,21 @@
         <v>637</v>
       </c>
       <c r="O138" s="2"/>
-      <c r="P138" s="7"/>
+      <c r="P138" s="6"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
-      <c r="S138" s="7"/>
+      <c r="S138" s="6"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
-      <c r="V138" s="7"/>
+      <c r="V138" s="6"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
-      <c r="Y138" s="7"/>
+      <c r="Y138" s="6"/>
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="12">
+      <c r="A139" s="11">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -12733,13 +12721,13 @@
       <c r="C139" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D139" s="7"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="7"/>
+      <c r="G139" s="6"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
-      <c r="J139" s="7"/>
+      <c r="J139" s="6"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="6">
@@ -12749,21 +12737,21 @@
         <v>638</v>
       </c>
       <c r="O139" s="2"/>
-      <c r="P139" s="7"/>
+      <c r="P139" s="6"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
-      <c r="S139" s="7"/>
+      <c r="S139" s="6"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
-      <c r="V139" s="7"/>
+      <c r="V139" s="6"/>
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
-      <c r="Y139" s="7"/>
+      <c r="Y139" s="6"/>
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="12">
+      <c r="A140" s="11">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -12772,13 +12760,13 @@
       <c r="C140" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-      <c r="G140" s="7"/>
+      <c r="G140" s="6"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-      <c r="J140" s="7"/>
+      <c r="J140" s="6"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="6">
@@ -12788,21 +12776,21 @@
         <v>639</v>
       </c>
       <c r="O140" s="2"/>
-      <c r="P140" s="7"/>
+      <c r="P140" s="6"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
-      <c r="S140" s="7"/>
+      <c r="S140" s="6"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
-      <c r="V140" s="7"/>
+      <c r="V140" s="6"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
-      <c r="Y140" s="7"/>
+      <c r="Y140" s="6"/>
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="12">
+      <c r="A141" s="11">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -12811,13 +12799,13 @@
       <c r="C141" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D141" s="7"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="7"/>
+      <c r="G141" s="6"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-      <c r="J141" s="7"/>
+      <c r="J141" s="6"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="6">
@@ -12827,36 +12815,36 @@
         <v>640</v>
       </c>
       <c r="O141" s="2"/>
-      <c r="P141" s="7"/>
+      <c r="P141" s="6"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
-      <c r="S141" s="7"/>
+      <c r="S141" s="6"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
-      <c r="V141" s="7"/>
+      <c r="V141" s="6"/>
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
-      <c r="Y141" s="7"/>
+      <c r="Y141" s="6"/>
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="12">
+      <c r="A142" s="11">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D142" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D142" s="6"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="7"/>
+      <c r="G142" s="6"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-      <c r="J142" s="7"/>
+      <c r="J142" s="6"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="6">
@@ -12866,36 +12854,36 @@
         <v>641</v>
       </c>
       <c r="O142" s="2"/>
-      <c r="P142" s="7"/>
+      <c r="P142" s="6"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
-      <c r="S142" s="7"/>
+      <c r="S142" s="6"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
-      <c r="V142" s="7"/>
+      <c r="V142" s="6"/>
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
-      <c r="Y142" s="7"/>
+      <c r="Y142" s="6"/>
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="12">
+      <c r="A143" s="11">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D143" s="7"/>
+        <v>1046</v>
+      </c>
+      <c r="D143" s="6"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="7"/>
+      <c r="G143" s="6"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-      <c r="J143" s="7"/>
+      <c r="J143" s="6"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="6">
@@ -12905,21 +12893,21 @@
         <v>642</v>
       </c>
       <c r="O143" s="2"/>
-      <c r="P143" s="7"/>
+      <c r="P143" s="6"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
-      <c r="S143" s="7"/>
+      <c r="S143" s="6"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
-      <c r="V143" s="7"/>
+      <c r="V143" s="6"/>
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
-      <c r="Y143" s="7"/>
+      <c r="Y143" s="6"/>
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="12">
+      <c r="A144" s="11">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -12928,13 +12916,13 @@
       <c r="C144" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="7"/>
+      <c r="G144" s="6"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="7"/>
+      <c r="J144" s="6"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="6">
@@ -12944,21 +12932,21 @@
         <v>643</v>
       </c>
       <c r="O144" s="2"/>
-      <c r="P144" s="7"/>
+      <c r="P144" s="6"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
-      <c r="S144" s="7"/>
+      <c r="S144" s="6"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
-      <c r="V144" s="7"/>
+      <c r="V144" s="6"/>
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
-      <c r="Y144" s="7"/>
+      <c r="Y144" s="6"/>
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="12">
+      <c r="A145" s="11">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -12967,13 +12955,13 @@
       <c r="C145" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="7"/>
+      <c r="G145" s="6"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="7"/>
+      <c r="J145" s="6"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="6">
@@ -12983,21 +12971,21 @@
         <v>644</v>
       </c>
       <c r="O145" s="2"/>
-      <c r="P145" s="7"/>
+      <c r="P145" s="6"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
-      <c r="S145" s="7"/>
+      <c r="S145" s="6"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
-      <c r="V145" s="7"/>
+      <c r="V145" s="6"/>
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
-      <c r="Y145" s="7"/>
+      <c r="Y145" s="6"/>
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="12">
+      <c r="A146" s="11">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -13006,13 +12994,13 @@
       <c r="C146" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D146" s="7"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
-      <c r="G146" s="7"/>
+      <c r="G146" s="6"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="7"/>
+      <c r="J146" s="6"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="6">
@@ -13022,21 +13010,21 @@
         <v>645</v>
       </c>
       <c r="O146" s="2"/>
-      <c r="P146" s="7"/>
+      <c r="P146" s="6"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
-      <c r="S146" s="7"/>
+      <c r="S146" s="6"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
-      <c r="V146" s="7"/>
+      <c r="V146" s="6"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
-      <c r="Y146" s="7"/>
+      <c r="Y146" s="6"/>
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="12">
+      <c r="A147" s="11">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -13045,13 +13033,13 @@
       <c r="C147" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="7"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
-      <c r="J147" s="7"/>
+      <c r="J147" s="6"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="6">
@@ -13061,21 +13049,21 @@
         <v>646</v>
       </c>
       <c r="O147" s="2"/>
-      <c r="P147" s="7"/>
+      <c r="P147" s="6"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
-      <c r="S147" s="7"/>
+      <c r="S147" s="6"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
-      <c r="V147" s="7"/>
+      <c r="V147" s="6"/>
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
-      <c r="Y147" s="7"/>
+      <c r="Y147" s="6"/>
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="12">
+      <c r="A148" s="11">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -13084,13 +13072,13 @@
       <c r="C148" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="7"/>
+      <c r="G148" s="6"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-      <c r="J148" s="7"/>
+      <c r="J148" s="6"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="6">
@@ -13100,21 +13088,21 @@
         <v>647</v>
       </c>
       <c r="O148" s="2"/>
-      <c r="P148" s="7"/>
+      <c r="P148" s="6"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
-      <c r="S148" s="7"/>
+      <c r="S148" s="6"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
-      <c r="V148" s="7"/>
+      <c r="V148" s="6"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
-      <c r="Y148" s="7"/>
+      <c r="Y148" s="6"/>
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="12">
+      <c r="A149" s="11">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -13123,13 +13111,13 @@
       <c r="C149" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="7"/>
+      <c r="G149" s="6"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
-      <c r="J149" s="7"/>
+      <c r="J149" s="6"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="6">
@@ -13139,21 +13127,21 @@
         <v>648</v>
       </c>
       <c r="O149" s="2"/>
-      <c r="P149" s="7"/>
+      <c r="P149" s="6"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
-      <c r="S149" s="7"/>
+      <c r="S149" s="6"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
-      <c r="V149" s="7"/>
+      <c r="V149" s="6"/>
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
-      <c r="Y149" s="7"/>
+      <c r="Y149" s="6"/>
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="12">
+      <c r="A150" s="11">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -13162,13 +13150,13 @@
       <c r="C150" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D150" s="7"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="7"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-      <c r="J150" s="7"/>
+      <c r="J150" s="6"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="6">
@@ -13178,21 +13166,21 @@
         <v>649</v>
       </c>
       <c r="O150" s="2"/>
-      <c r="P150" s="7"/>
+      <c r="P150" s="6"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
-      <c r="S150" s="7"/>
+      <c r="S150" s="6"/>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
-      <c r="V150" s="7"/>
+      <c r="V150" s="6"/>
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
-      <c r="Y150" s="7"/>
+      <c r="Y150" s="6"/>
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="12">
+      <c r="A151" s="11">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -13201,13 +13189,13 @@
       <c r="C151" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="7"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
-      <c r="J151" s="7"/>
+      <c r="J151" s="6"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="6">
@@ -13217,21 +13205,21 @@
         <v>650</v>
       </c>
       <c r="O151" s="2"/>
-      <c r="P151" s="7"/>
+      <c r="P151" s="6"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
-      <c r="S151" s="7"/>
+      <c r="S151" s="6"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
-      <c r="V151" s="7"/>
+      <c r="V151" s="6"/>
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
-      <c r="Y151" s="7"/>
+      <c r="Y151" s="6"/>
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="12">
+      <c r="A152" s="11">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -13240,13 +13228,13 @@
       <c r="C152" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="7"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
-      <c r="J152" s="7"/>
+      <c r="J152" s="6"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="6">
@@ -13256,21 +13244,21 @@
         <v>651</v>
       </c>
       <c r="O152" s="2"/>
-      <c r="P152" s="7"/>
+      <c r="P152" s="6"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
-      <c r="S152" s="7"/>
+      <c r="S152" s="6"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
-      <c r="V152" s="7"/>
+      <c r="V152" s="6"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
-      <c r="Y152" s="7"/>
+      <c r="Y152" s="6"/>
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="12">
+      <c r="A153" s="11">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -13279,13 +13267,13 @@
       <c r="C153" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="7"/>
+      <c r="G153" s="6"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="7"/>
+      <c r="J153" s="6"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="6">
@@ -13295,30 +13283,30 @@
         <v>652</v>
       </c>
       <c r="O153" s="2"/>
-      <c r="P153" s="7"/>
+      <c r="P153" s="6"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
-      <c r="S153" s="7"/>
+      <c r="S153" s="6"/>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
-      <c r="V153" s="7"/>
+      <c r="V153" s="6"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
-      <c r="Y153" s="7"/>
+      <c r="Y153" s="6"/>
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="12"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="7"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="7"/>
+      <c r="G154" s="6"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="7"/>
+      <c r="J154" s="6"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="6">
@@ -13328,30 +13316,30 @@
         <v>653</v>
       </c>
       <c r="O154" s="2"/>
-      <c r="P154" s="7"/>
+      <c r="P154" s="6"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
-      <c r="S154" s="7"/>
+      <c r="S154" s="6"/>
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
-      <c r="V154" s="7"/>
+      <c r="V154" s="6"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
-      <c r="Y154" s="7"/>
+      <c r="Y154" s="6"/>
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="12"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="7"/>
+      <c r="D155" s="6"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="7"/>
+      <c r="G155" s="6"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="7"/>
+      <c r="J155" s="6"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="6">
@@ -13361,30 +13349,30 @@
         <v>654</v>
       </c>
       <c r="O155" s="2"/>
-      <c r="P155" s="7"/>
+      <c r="P155" s="6"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
-      <c r="S155" s="7"/>
+      <c r="S155" s="6"/>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
-      <c r="V155" s="7"/>
+      <c r="V155" s="6"/>
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
-      <c r="Y155" s="7"/>
+      <c r="Y155" s="6"/>
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="12"/>
+      <c r="A156" s="11"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="7"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="7"/>
+      <c r="G156" s="6"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
-      <c r="J156" s="7"/>
+      <c r="J156" s="6"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="6">
@@ -13394,30 +13382,30 @@
         <v>655</v>
       </c>
       <c r="O156" s="2"/>
-      <c r="P156" s="7"/>
+      <c r="P156" s="6"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="7"/>
+      <c r="S156" s="6"/>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
-      <c r="V156" s="7"/>
+      <c r="V156" s="6"/>
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
-      <c r="Y156" s="7"/>
+      <c r="Y156" s="6"/>
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="12"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="7"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="7"/>
+      <c r="G157" s="6"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
-      <c r="J157" s="7"/>
+      <c r="J157" s="6"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="6">
@@ -13427,16 +13415,16 @@
         <v>656</v>
       </c>
       <c r="O157" s="2"/>
-      <c r="P157" s="7"/>
+      <c r="P157" s="6"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
-      <c r="S157" s="7"/>
+      <c r="S157" s="6"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
-      <c r="V157" s="7"/>
+      <c r="V157" s="6"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
-      <c r="Y157" s="7"/>
+      <c r="Y157" s="6"/>
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>

--- a/Pokemon List.xlsx
+++ b/Pokemon List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1049">
   <si>
     <t>Name</t>
   </si>
@@ -3785,7 +3785,9 @@
       <c r="Q3" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S3" s="6">
         <v>722</v>
       </c>
@@ -3860,7 +3862,9 @@
       <c r="Q4" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S4" s="6">
         <v>723</v>
       </c>
@@ -3935,7 +3939,9 @@
       <c r="Q5" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S5" s="6">
         <v>724</v>
       </c>
@@ -4010,7 +4016,9 @@
       <c r="Q6" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S6" s="6">
         <v>725</v>
       </c>
@@ -4085,7 +4093,9 @@
       <c r="Q7" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S7" s="6">
         <v>726</v>
       </c>
@@ -4160,7 +4170,9 @@
       <c r="Q8" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S8" s="6">
         <v>727</v>
       </c>
@@ -4235,7 +4247,9 @@
       <c r="Q9" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S9" s="6">
         <v>728</v>
       </c>
@@ -4310,7 +4324,9 @@
       <c r="Q10" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S10" s="6">
         <v>729</v>
       </c>
@@ -4385,7 +4401,9 @@
       <c r="Q11" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S11" s="6">
         <v>730</v>
       </c>
@@ -4460,7 +4478,9 @@
       <c r="Q12" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S12" s="6">
         <v>731</v>
       </c>
@@ -4535,7 +4555,9 @@
       <c r="Q13" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S13" s="6">
         <v>732</v>
       </c>
@@ -4610,7 +4632,9 @@
       <c r="Q14" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S14" s="6">
         <v>733</v>
       </c>
@@ -4685,7 +4709,9 @@
       <c r="Q15" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S15" s="6">
         <v>734</v>
       </c>
@@ -4760,7 +4786,9 @@
       <c r="Q16" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S16" s="6">
         <v>735</v>
       </c>
@@ -4835,7 +4863,9 @@
       <c r="Q17" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S17" s="6">
         <v>736</v>
       </c>
@@ -4910,7 +4940,9 @@
       <c r="Q18" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S18" s="6">
         <v>737</v>
       </c>
@@ -4985,7 +5017,9 @@
       <c r="Q19" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S19" s="6">
         <v>738</v>
       </c>
@@ -5060,7 +5094,9 @@
       <c r="Q20" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S20" s="6">
         <v>739</v>
       </c>
@@ -5135,7 +5171,9 @@
       <c r="Q21" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S21" s="6">
         <v>740</v>
       </c>
@@ -5212,7 +5250,9 @@
       <c r="Q22" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S22" s="6">
         <v>741</v>
       </c>
@@ -5287,7 +5327,9 @@
       <c r="Q23" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S23" s="6">
         <v>742</v>
       </c>
@@ -5362,7 +5404,9 @@
       <c r="Q24" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S24" s="6">
         <v>743</v>
       </c>
@@ -5437,7 +5481,9 @@
       <c r="Q25" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S25" s="6">
         <v>744</v>
       </c>
@@ -5514,7 +5560,9 @@
       <c r="Q26" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S26" s="6">
         <v>745</v>
       </c>
@@ -5591,7 +5639,9 @@
       <c r="Q27" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S27" s="6">
         <v>746</v>
       </c>
@@ -5666,7 +5716,9 @@
       <c r="Q28" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S28" s="6">
         <v>747</v>
       </c>
@@ -5741,7 +5793,9 @@
       <c r="Q29" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S29" s="6">
         <v>748</v>
       </c>
@@ -5816,7 +5870,9 @@
       <c r="Q30" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S30" s="6">
         <v>749</v>
       </c>
@@ -5891,7 +5947,9 @@
       <c r="Q31" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S31" s="6">
         <v>750</v>
       </c>
@@ -5966,7 +6024,9 @@
       <c r="Q32" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S32" s="6">
         <v>751</v>
       </c>
@@ -6041,7 +6101,9 @@
       <c r="Q33" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S33" s="6">
         <v>752</v>
       </c>
@@ -6116,7 +6178,9 @@
       <c r="Q34" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S34" s="6">
         <v>753</v>
       </c>
@@ -6191,7 +6255,9 @@
       <c r="Q35" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S35" s="6">
         <v>754</v>
       </c>
@@ -6266,7 +6332,9 @@
       <c r="Q36" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S36" s="6">
         <v>755</v>
       </c>
@@ -6341,7 +6409,9 @@
       <c r="Q37" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S37" s="6">
         <v>756</v>
       </c>
@@ -6416,7 +6486,9 @@
       <c r="Q38" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S38" s="6">
         <v>757</v>
       </c>
@@ -6491,7 +6563,9 @@
       <c r="Q39" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="R39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S39" s="6">
         <v>758</v>
       </c>
@@ -6566,7 +6640,9 @@
       <c r="Q40" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S40" s="6">
         <v>759</v>
       </c>
@@ -6641,7 +6717,9 @@
       <c r="Q41" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="R41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S41" s="6">
         <v>760</v>
       </c>
@@ -6716,7 +6794,9 @@
       <c r="Q42" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S42" s="6">
         <v>761</v>
       </c>
@@ -6791,7 +6871,9 @@
       <c r="Q43" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="R43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S43" s="6">
         <v>762</v>
       </c>
@@ -6866,7 +6948,9 @@
       <c r="Q44" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S44" s="6">
         <v>763</v>
       </c>
@@ -6941,7 +7025,9 @@
       <c r="Q45" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="R45" s="2"/>
+      <c r="R45" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S45" s="6">
         <v>764</v>
       </c>
@@ -7016,7 +7102,9 @@
       <c r="Q46" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S46" s="6">
         <v>765</v>
       </c>
@@ -7091,7 +7179,9 @@
       <c r="Q47" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S47" s="6">
         <v>766</v>
       </c>
@@ -7166,7 +7256,9 @@
       <c r="Q48" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="R48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S48" s="6">
         <v>767</v>
       </c>
@@ -7241,7 +7333,9 @@
       <c r="Q49" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="R49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S49" s="6">
         <v>768</v>
       </c>
@@ -7316,7 +7410,9 @@
       <c r="Q50" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="R50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S50" s="6">
         <v>769</v>
       </c>
@@ -7391,7 +7487,9 @@
       <c r="Q51" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="R51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S51" s="6">
         <v>770</v>
       </c>
@@ -7466,7 +7564,9 @@
       <c r="Q52" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S52" s="6">
         <v>771</v>
       </c>
@@ -7541,7 +7641,9 @@
       <c r="Q53" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S53" s="6">
         <v>772</v>
       </c>
@@ -7616,7 +7718,9 @@
       <c r="Q54" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="R54" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S54" s="6">
         <v>773</v>
       </c>
@@ -7689,7 +7793,9 @@
       <c r="Q55" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S55" s="6">
         <v>774</v>
       </c>
@@ -7764,7 +7870,9 @@
       <c r="Q56" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="R56" s="2"/>
+      <c r="R56" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S56" s="6">
         <v>775</v>
       </c>
@@ -7837,7 +7945,9 @@
       <c r="Q57" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="R57" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S57" s="6">
         <v>776</v>
       </c>
@@ -7910,7 +8020,9 @@
       <c r="Q58" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="R58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S58" s="6">
         <v>777</v>
       </c>
@@ -7983,7 +8095,9 @@
       <c r="Q59" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="R59" s="2"/>
+      <c r="R59" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S59" s="6">
         <v>778</v>
       </c>
@@ -8056,7 +8170,9 @@
       <c r="Q60" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="R60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S60" s="6">
         <v>779</v>
       </c>
@@ -8129,7 +8245,9 @@
       <c r="Q61" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="R61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S61" s="6">
         <v>780</v>
       </c>
@@ -8202,7 +8320,9 @@
       <c r="Q62" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S62" s="6">
         <v>781</v>
       </c>
@@ -8275,7 +8395,9 @@
       <c r="Q63" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="R63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S63" s="6">
         <v>782</v>
       </c>
@@ -8348,7 +8470,9 @@
       <c r="Q64" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S64" s="6">
         <v>783</v>
       </c>
@@ -8421,7 +8545,9 @@
       <c r="Q65" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="R65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S65" s="6">
         <v>784</v>
       </c>
@@ -8494,7 +8620,9 @@
       <c r="Q66" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="R66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S66" s="6">
         <v>785</v>
       </c>
@@ -8567,7 +8695,9 @@
       <c r="Q67" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="R67" s="2"/>
+      <c r="R67" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S67" s="6">
         <v>786</v>
       </c>
@@ -8642,7 +8772,9 @@
       <c r="Q68" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="R68" s="2"/>
+      <c r="R68" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S68" s="6">
         <v>787</v>
       </c>
@@ -8717,7 +8849,9 @@
       <c r="Q69" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="R69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S69" s="6">
         <v>788</v>
       </c>
@@ -8790,7 +8924,9 @@
       <c r="Q70" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="R70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S70" s="6">
         <v>789</v>
       </c>
@@ -8863,7 +8999,9 @@
       <c r="Q71" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="R71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S71" s="6">
         <v>790</v>
       </c>
@@ -8936,7 +9074,9 @@
       <c r="Q72" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="R72" s="2"/>
+      <c r="R72" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S72" s="6">
         <v>791</v>
       </c>
@@ -9009,7 +9149,9 @@
       <c r="Q73" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="R73" s="2"/>
+      <c r="R73" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S73" s="6">
         <v>792</v>
       </c>
@@ -9082,7 +9224,9 @@
       <c r="Q74" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="R74" s="2"/>
+      <c r="R74" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="S74" s="6">
         <v>793</v>
       </c>

--- a/Pokemon List.xlsx
+++ b/Pokemon List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1049">
   <si>
     <t>Name</t>
   </si>
@@ -3244,7 +3244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3277,6 +3277,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3584,37 +3587,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA157"/>
+  <dimension ref="A1:AA158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="5.433571428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="7.147857142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -3794,7 +3797,9 @@
       <c r="T3" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V3" s="6">
         <v>810</v>
       </c>
@@ -3871,7 +3876,9 @@
       <c r="T4" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V4" s="6">
         <v>811</v>
       </c>
@@ -3948,7 +3955,9 @@
       <c r="T5" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V5" s="6">
         <v>812</v>
       </c>
@@ -4186,7 +4195,9 @@
       <c r="W8" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="X8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="Y8" s="6">
         <v>911</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>508</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="P9" s="6">
         <v>656</v>
@@ -4263,7 +4274,9 @@
       <c r="W9" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="Y9" s="6">
         <v>912</v>
       </c>
@@ -4932,7 +4945,7 @@
         <v>517</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="P18" s="6">
         <v>665</v>
@@ -5413,7 +5426,9 @@
       <c r="T24" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="U24" s="2"/>
+      <c r="U24" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V24" s="6">
         <v>831</v>
       </c>
@@ -5879,7 +5894,9 @@
       <c r="T30" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="U30" s="2"/>
+      <c r="U30" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V30" s="6">
         <v>837</v>
       </c>
@@ -5956,7 +5973,9 @@
       <c r="T31" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="U31" s="2"/>
+      <c r="U31" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V31" s="6">
         <v>838</v>
       </c>
@@ -6093,7 +6112,7 @@
         <v>532</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="P33" s="6">
         <v>680</v>
@@ -6170,7 +6189,7 @@
         <v>533</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="P34" s="6">
         <v>681</v>
@@ -6247,7 +6266,7 @@
         <v>534</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="P35" s="6">
         <v>682</v>
@@ -7111,7 +7130,9 @@
       <c r="T46" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="U46" s="2"/>
+      <c r="U46" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V46" s="6">
         <v>853</v>
       </c>
@@ -7265,7 +7286,9 @@
       <c r="T48" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="U48" s="2"/>
+      <c r="U48" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V48" s="6">
         <v>855</v>
       </c>
@@ -7342,7 +7365,9 @@
       <c r="T49" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="U49" s="2"/>
+      <c r="U49" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V49" s="6">
         <v>856</v>
       </c>
@@ -7419,7 +7444,9 @@
       <c r="T50" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="U50" s="2"/>
+      <c r="U50" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V50" s="6">
         <v>857</v>
       </c>
@@ -7573,7 +7600,9 @@
       <c r="T52" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="U52" s="2"/>
+      <c r="U52" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V52" s="6">
         <v>859</v>
       </c>
@@ -7650,7 +7679,9 @@
       <c r="T53" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="U53" s="2"/>
+      <c r="U53" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V53" s="6">
         <v>860</v>
       </c>
@@ -7727,7 +7758,9 @@
       <c r="T54" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="U54" s="2"/>
+      <c r="U54" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V54" s="6">
         <v>861</v>
       </c>
@@ -7863,7 +7896,9 @@
       <c r="N56" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="O56" s="2"/>
+      <c r="O56" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P56" s="6">
         <v>703</v>
       </c>
@@ -7879,7 +7914,9 @@
       <c r="T56" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="U56" s="2"/>
+      <c r="U56" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V56" s="6">
         <v>863</v>
       </c>
@@ -7954,7 +7991,9 @@
       <c r="T57" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="U57" s="2"/>
+      <c r="U57" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V57" s="6">
         <v>864</v>
       </c>
@@ -8013,7 +8052,9 @@
       <c r="N58" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="O58" s="2"/>
+      <c r="O58" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P58" s="6">
         <v>705</v>
       </c>
@@ -8029,7 +8070,9 @@
       <c r="T58" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="U58" s="2"/>
+      <c r="U58" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V58" s="6">
         <v>865</v>
       </c>
@@ -8104,7 +8147,9 @@
       <c r="T59" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="U59" s="2"/>
+      <c r="U59" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V59" s="6">
         <v>866</v>
       </c>
@@ -8179,7 +8224,9 @@
       <c r="T60" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="U60" s="2"/>
+      <c r="U60" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V60" s="6">
         <v>867</v>
       </c>
@@ -8254,7 +8301,9 @@
       <c r="T61" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="U61" s="2"/>
+      <c r="U61" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V61" s="6">
         <v>868</v>
       </c>
@@ -8313,7 +8362,9 @@
       <c r="N62" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="O62" s="2"/>
+      <c r="O62" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P62" s="6">
         <v>709</v>
       </c>
@@ -8388,7 +8439,9 @@
       <c r="N63" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P63" s="6">
         <v>710</v>
       </c>
@@ -8404,7 +8457,9 @@
       <c r="T63" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="U63" s="2"/>
+      <c r="U63" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V63" s="6">
         <v>870</v>
       </c>
@@ -8463,7 +8518,9 @@
       <c r="N64" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="O64" s="2"/>
+      <c r="O64" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P64" s="6">
         <v>711</v>
       </c>
@@ -8479,7 +8536,9 @@
       <c r="T64" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="U64" s="2"/>
+      <c r="U64" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V64" s="6">
         <v>871</v>
       </c>
@@ -8538,7 +8597,9 @@
       <c r="N65" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="O65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P65" s="6">
         <v>712</v>
       </c>
@@ -8554,7 +8615,9 @@
       <c r="T65" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="U65" s="2"/>
+      <c r="U65" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V65" s="6">
         <v>872</v>
       </c>
@@ -8629,7 +8692,9 @@
       <c r="T66" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="U66" s="2"/>
+      <c r="U66" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V66" s="6">
         <v>873</v>
       </c>
@@ -8688,7 +8753,9 @@
       <c r="N67" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P67" s="6">
         <v>714</v>
       </c>
@@ -8704,7 +8771,9 @@
       <c r="T67" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="U67" s="2"/>
+      <c r="U67" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V67" s="6">
         <v>874</v>
       </c>
@@ -8781,7 +8850,9 @@
       <c r="T68" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="U68" s="2"/>
+      <c r="U68" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V68" s="6">
         <v>875</v>
       </c>
@@ -8858,7 +8929,9 @@
       <c r="T69" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="U69" s="2"/>
+      <c r="U69" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V69" s="6">
         <v>876</v>
       </c>
@@ -8992,7 +9065,9 @@
       <c r="N71" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="O71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P71" s="6">
         <v>718</v>
       </c>
@@ -9067,7 +9142,9 @@
       <c r="N72" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="O72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P72" s="6">
         <v>719</v>
       </c>
@@ -9158,7 +9235,9 @@
       <c r="T73" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="U73" s="2"/>
+      <c r="U73" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V73" s="6">
         <v>880</v>
       </c>
@@ -9292,7 +9371,9 @@
       <c r="N75" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="O75" s="2"/>
+      <c r="O75" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P75" s="6"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -9371,7 +9452,9 @@
       <c r="T76" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="U76" s="2"/>
+      <c r="U76" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="V76" s="6">
         <v>883</v>
       </c>
@@ -9430,7 +9513,9 @@
       <c r="N77" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="O77" s="2"/>
+      <c r="O77" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -9499,7 +9584,9 @@
       <c r="N78" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="O78" s="2"/>
+      <c r="O78" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -9568,7 +9655,9 @@
       <c r="N79" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="O79" s="2"/>
+      <c r="O79" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -9637,7 +9726,9 @@
       <c r="N80" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="O80" s="2"/>
+      <c r="O80" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
@@ -9654,7 +9745,9 @@
       <c r="W80" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="X80" s="2"/>
+      <c r="X80" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="Y80" s="6">
         <v>983</v>
       </c>
@@ -9706,7 +9799,9 @@
       <c r="N81" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="O81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
@@ -9716,7 +9811,9 @@
       <c r="T81" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="U81" s="2"/>
+      <c r="U81" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="V81" s="6">
         <v>888</v>
       </c>
@@ -9844,7 +9941,9 @@
       <c r="N83" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="O83" s="2"/>
+      <c r="O83" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P83" s="6"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
@@ -9861,7 +9960,9 @@
       <c r="W83" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="X83" s="2"/>
+      <c r="X83" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="Y83" s="6">
         <v>986</v>
       </c>
@@ -9913,7 +10014,9 @@
       <c r="N84" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="O84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P84" s="6"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
@@ -9982,7 +10085,9 @@
       <c r="N85" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="O85" s="2"/>
+      <c r="O85" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
@@ -10051,7 +10156,9 @@
       <c r="N86" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="O86" s="2"/>
+      <c r="O86" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
@@ -10137,7 +10244,9 @@
       <c r="W87" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="X87" s="2"/>
+      <c r="X87" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="Y87" s="6">
         <v>990</v>
       </c>
@@ -10206,7 +10315,9 @@
       <c r="W88" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="X88" s="2"/>
+      <c r="X88" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="Y88" s="6">
         <v>991</v>
       </c>
@@ -10258,7 +10369,9 @@
       <c r="N89" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="O89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
@@ -10327,7 +10440,9 @@
       <c r="N90" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="O90" s="2"/>
+      <c r="O90" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
@@ -10461,7 +10576,9 @@
       <c r="N92" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="O92" s="2"/>
+      <c r="O92" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
@@ -10526,7 +10643,9 @@
       <c r="N93" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="O93" s="2"/>
+      <c r="O93" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P93" s="6"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
@@ -10591,7 +10710,9 @@
       <c r="N94" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="O94" s="2"/>
+      <c r="O94" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P94" s="6"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
@@ -10656,7 +10777,9 @@
       <c r="N95" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="O95" s="2"/>
+      <c r="O95" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P95" s="6"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
@@ -10721,7 +10844,9 @@
       <c r="N96" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="O96" s="2"/>
+      <c r="O96" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
@@ -10786,7 +10911,9 @@
       <c r="N97" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="O97" s="2"/>
+      <c r="O97" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
@@ -10851,7 +10978,9 @@
       <c r="N98" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="O98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P98" s="6"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
@@ -10916,7 +11045,9 @@
       <c r="N99" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="O99" s="2"/>
+      <c r="O99" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P99" s="6"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
@@ -10977,7 +11108,9 @@
       <c r="N100" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="O100" s="2"/>
+      <c r="O100" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
@@ -11154,7 +11287,9 @@
       <c r="N103" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="O103" s="2"/>
+      <c r="O103" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P103" s="6"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
@@ -11266,7 +11401,9 @@
       <c r="N105" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="O105" s="2"/>
+      <c r="O105" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P105" s="6"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
@@ -11282,7 +11419,9 @@
       <c r="Z105" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="AA105" s="2"/>
+      <c r="AA105" s="2" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="11">
@@ -11321,7 +11460,9 @@
       <c r="N106" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="O106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P106" s="6"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
@@ -11376,7 +11517,9 @@
       <c r="N107" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="O107" s="2"/>
+      <c r="O107" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P107" s="6"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
@@ -11431,7 +11574,9 @@
       <c r="N108" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="O108" s="2"/>
+      <c r="O108" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P108" s="6"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
@@ -11486,7 +11631,9 @@
       <c r="N109" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="O109" s="2"/>
+      <c r="O109" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P109" s="6"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
@@ -11535,7 +11682,9 @@
       <c r="N110" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="O110" s="2"/>
+      <c r="O110" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P110" s="6"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
@@ -11731,7 +11880,9 @@
       <c r="N114" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="O114" s="2"/>
+      <c r="O114" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P114" s="6"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
@@ -11829,7 +11980,9 @@
       <c r="N116" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="O116" s="2"/>
+      <c r="O116" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P116" s="6"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
@@ -11927,7 +12080,9 @@
       <c r="N118" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="O118" s="2"/>
+      <c r="O118" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P118" s="6"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
@@ -11976,7 +12131,9 @@
       <c r="N119" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="O119" s="2"/>
+      <c r="O119" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P119" s="6"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
@@ -12025,7 +12182,9 @@
       <c r="N120" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="O120" s="2"/>
+      <c r="O120" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P120" s="6"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
@@ -12074,7 +12233,9 @@
       <c r="N121" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="O121" s="2"/>
+      <c r="O121" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P121" s="6"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
@@ -12123,7 +12284,9 @@
       <c r="N122" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="O122" s="2"/>
+      <c r="O122" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P122" s="6"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
@@ -12139,7 +12302,9 @@
       <c r="Z122" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="AA122" s="2"/>
+      <c r="AA122" s="2" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="11">
@@ -12172,7 +12337,9 @@
       <c r="N123" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="O123" s="2"/>
+      <c r="O123" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P123" s="6"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
@@ -12217,7 +12384,9 @@
       <c r="N124" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="O124" s="2"/>
+      <c r="O124" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P124" s="6"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
@@ -12262,7 +12431,9 @@
       <c r="N125" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="O125" s="2"/>
+      <c r="O125" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P125" s="6"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
@@ -12307,7 +12478,9 @@
       <c r="N126" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="O126" s="2"/>
+      <c r="O126" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P126" s="6"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
@@ -12397,7 +12570,9 @@
       <c r="N128" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="O128" s="2"/>
+      <c r="O128" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P128" s="6"/>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
@@ -12442,7 +12617,9 @@
       <c r="N129" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="O129" s="2"/>
+      <c r="O129" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P129" s="6"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
@@ -12487,7 +12664,9 @@
       <c r="N130" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="O130" s="2"/>
+      <c r="O130" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P130" s="6"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
@@ -12532,7 +12711,9 @@
       <c r="N131" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="O131" s="2"/>
+      <c r="O131" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P131" s="6"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
@@ -12577,7 +12758,9 @@
       <c r="N132" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="O132" s="2"/>
+      <c r="O132" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="P132" s="6"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
@@ -12622,7 +12805,9 @@
       <c r="N133" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="O133" s="2"/>
+      <c r="O133" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P133" s="6"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
@@ -12667,7 +12852,9 @@
       <c r="N134" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="O134" s="2"/>
+      <c r="O134" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P134" s="6"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
@@ -12802,7 +12989,9 @@
       <c r="N137" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="O137" s="2"/>
+      <c r="O137" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P137" s="6"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
@@ -12880,7 +13069,9 @@
       <c r="N139" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="O139" s="2"/>
+      <c r="O139" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P139" s="6"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
@@ -12997,7 +13188,9 @@
       <c r="N142" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="O142" s="2"/>
+      <c r="O142" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P142" s="6"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
@@ -13036,7 +13229,9 @@
       <c r="N143" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="O143" s="2"/>
+      <c r="O143" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P143" s="6"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
@@ -13075,7 +13270,9 @@
       <c r="N144" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="O144" s="2"/>
+      <c r="O144" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P144" s="6"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
@@ -13153,7 +13350,9 @@
       <c r="N146" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="O146" s="2"/>
+      <c r="O146" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P146" s="6"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
@@ -13192,7 +13391,9 @@
       <c r="N147" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="O147" s="2"/>
+      <c r="O147" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P147" s="6"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
@@ -13231,7 +13432,9 @@
       <c r="N148" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="O148" s="2"/>
+      <c r="O148" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P148" s="6"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
@@ -13270,7 +13473,9 @@
       <c r="N149" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="O149" s="2"/>
+      <c r="O149" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P149" s="6"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
@@ -13309,7 +13514,9 @@
       <c r="N150" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="O150" s="2"/>
+      <c r="O150" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P150" s="6"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
@@ -13348,7 +13555,9 @@
       <c r="N151" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="O151" s="2"/>
+      <c r="O151" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P151" s="6"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
@@ -13387,7 +13596,9 @@
       <c r="N152" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="O152" s="2"/>
+      <c r="O152" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P152" s="6"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
@@ -13426,7 +13637,9 @@
       <c r="N153" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="O153" s="2"/>
+      <c r="O153" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P153" s="6"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
@@ -13459,7 +13672,9 @@
       <c r="N154" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="O154" s="2"/>
+      <c r="O154" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P154" s="6"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
@@ -13492,7 +13707,9 @@
       <c r="N155" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="O155" s="2"/>
+      <c r="O155" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P155" s="6"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
@@ -13525,7 +13742,9 @@
       <c r="N156" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="O156" s="2"/>
+      <c r="O156" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="P156" s="6"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
@@ -13540,16 +13759,16 @@
       <c r="AA156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="11"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="6"/>
+      <c r="D157" s="12"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="6"/>
+      <c r="G157" s="12"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
-      <c r="J157" s="6"/>
+      <c r="J157" s="12"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="6">
@@ -13558,19 +13777,56 @@
       <c r="N157" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="6"/>
+      <c r="O157" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P157" s="12"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
-      <c r="S157" s="6"/>
+      <c r="S157" s="12"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
-      <c r="V157" s="6"/>
+      <c r="V157" s="12"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
-      <c r="Y157" s="6"/>
+      <c r="Y157" s="12"/>
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="11"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="6">
+        <v>649</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="2"/>
+      <c r="X158" s="2"/>
+      <c r="Y158" s="6"/>
+      <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
